--- a/biology/Médecine/Entérite/Entérite.xlsx
+++ b/biology/Médecine/Entérite/Entérite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rite</t>
+          <t>Entérite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entérite est l'inflammation de l'intestin grêle. Chez l'humain elle prend la forme d'une gastro-entérite lorsqu'elle est liée à une gastrite. Chez les anatidés elle prend le nom de peste du canard.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rite</t>
+          <t>Entérite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Micro organismes présents dans les aliments ou l'eau.
 Produit alimentaire provoquant un trouble intestinal comme l'alcool
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rite</t>
+          <t>Entérite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Douleurs abdominales, crampes
 Fièvre
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rite</t>
+          <t>Entérite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Effets</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'exagération de la diarrhée et des vomissements conduit à la déshydratation.</t>
         </is>
